--- a/biology/Médecine/1550_en_santé_et_médecine/1550_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1550_en_santé_et_médecine/1550_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1550_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1550_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1550 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1550_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1550_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vers 1550 : à Londres, « les commencements de St. Thomas's Hospital Medical School (en) peuvent être datés de l'embauche [par l'hôpital] de trois barbiers chirurgiens, assistés de leurs apprentis[1] ».
-À partir de 1550 : le doge de Venise Francesco Donà, « gravement malade et incapable d'accomplir les tâches les plus lourdes, cherche à abdiquer, mais il s'en voit refuser l'autorisation, et il meurt, « après de longues souffrances », en 1553[2] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vers 1550 : à Londres, « les commencements de St. Thomas's Hospital Medical School (en) peuvent être datés de l'embauche [par l'hôpital] de trois barbiers chirurgiens, assistés de leurs apprentis ».
+À partir de 1550 : le doge de Venise Francesco Donà, « gravement malade et incapable d'accomplir les tâches les plus lourdes, cherche à abdiquer, mais il s'en voit refuser l'autorisation, et il meurt, « après de longues souffrances », en 1553 ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1550_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1550_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jérôme Cardan, mathématicien, naturaliste et médecin italien, fait paraître son De subtilitate à Nuremberg, chez Johann Petreus[3].
-Robert Estienne imprime à Paris le De nutrimentibus de son frère Charles[4],[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jérôme Cardan, mathématicien, naturaliste et médecin italien, fait paraître son De subtilitate à Nuremberg, chez Johann Petreus.
+Robert Estienne imprime à Paris le De nutrimentibus de son frère Charles,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1550_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1550_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +589,19 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fortunato Fedele (it) (mort en 1630), médecin italien considéré par la plupart des historiens comme le fondateur de la médecine légale[6].
-Bernhard Paludanus (mort en 1633), médecin et collectionneur néerlandais[7].
-Jean Robin (mort en 1629), botaniste français, directeur du jardin de l'école de médecine (1597) et sous-démonstrateur au Jardin des plantes (1626) à leur création à Paris[8],[9].
-François Sanchez (mort en 1623), médecin et philosophe espagnol d'origine portugaise[10].
-Entre 1540 et 1550 : Girolamo Mercurio, dit Scipion (mort en 1615), médecin italien, auteur de La comare o ricoglitrice, qui sera abondamment traduite et restera, jusque dans les années 1620, le seul manuel d'obstétrique rédigé en langue vernaculaire italienne[11].
-1549 ou 1550 : Jacques Guillemeau (mort en 1613), chirurgien, obstétricien, élève d'Ambroise Paré, au service des rois de France Charles IX, Henri III et Henri IV[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fortunato Fedele (it) (mort en 1630), médecin italien considéré par la plupart des historiens comme le fondateur de la médecine légale.
+Bernhard Paludanus (mort en 1633), médecin et collectionneur néerlandais.
+Jean Robin (mort en 1629), botaniste français, directeur du jardin de l'école de médecine (1597) et sous-démonstrateur au Jardin des plantes (1626) à leur création à Paris,.
+François Sanchez (mort en 1623), médecin et philosophe espagnol d'origine portugaise.
+Entre 1540 et 1550 : Girolamo Mercurio, dit Scipion (mort en 1615), médecin italien, auteur de La comare o ricoglitrice, qui sera abondamment traduite et restera, jusque dans les années 1620, le seul manuel d'obstétrique rédigé en langue vernaculaire italienne.
+1549 ou 1550 : Jacques Guillemeau (mort en 1613), chirurgien, obstétricien, élève d'Ambroise Paré, au service des rois de France Charles IX, Henri III et Henri IV.
 Vers 1550 :
-Anselmus Boëtius de Boodt (mort en 1626), médecin, humaniste, minéralogiste, homme politique et chanoine laïc flamand[13].
-Jean Béguin (mort vers 1620), apothicaire et chimiste français, aumônier du roi Louis XIII[14].</t>
+Anselmus Boëtius de Boodt (mort en 1626), médecin, humaniste, minéralogiste, homme politique et chanoine laïc flamand.
+Jean Béguin (mort vers 1620), apothicaire et chimiste français, aumônier du roi Louis XIII.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1550_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1550_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,11 +629,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>23 février : Alban Thorer (né en 1489), professeur de médecine à Bâle, éditeur « des anciens médecins grecs et latins[15] ».
-8 mars : Jean de Dieu (né en 1495), fondateur de l'ordre hospitalier de Saint-Jean-de-Dieu[16].
-28 mars : Antoine Lecoq (né à une date inconnue), médecin français, doyen de la faculté de médecine de Paris en 1538[17].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23 février : Alban Thorer (né en 1489), professeur de médecine à Bâle, éditeur « des anciens médecins grecs et latins ».
+8 mars : Jean de Dieu (né en 1495), fondateur de l'ordre hospitalier de Saint-Jean-de-Dieu.
+28 mars : Antoine Lecoq (né à une date inconnue), médecin français, doyen de la faculté de médecine de Paris en 1538.</t>
         </is>
       </c>
     </row>
